--- a/自拟表格-1.xlsx
+++ b/自拟表格-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\GitHub\BC-experiment\BC-experiment-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DEF179-6450-4452-BDB8-4BBD77319031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6486D68-874A-4B79-9A85-5CE4E4838908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3610" windowWidth="16200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Uoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,13 +53,22 @@
   <si>
     <t>预习内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数</t>
+  </si>
+  <si>
+    <t>U（V）</t>
+  </si>
+  <si>
+    <t>I（mA）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +83,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -106,11 +122,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -119,6 +255,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -412,14 +578,32 @@
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7">
+        <v>1</v>
+      </c>
+      <c r="J1" s="7">
+        <v>2</v>
+      </c>
+      <c r="K1" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -429,8 +613,27 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4.4018899999999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4.93309</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5.1480899999999998</v>
+      </c>
+      <c r="J2" s="5">
+        <v>5.38971</v>
+      </c>
+      <c r="K2" s="10">
+        <v>6.0378299999999996</v>
+      </c>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -440,6 +643,25 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="12">
+        <v>7.2036300000000004</v>
+      </c>
+      <c r="H3" s="12">
+        <v>6.1407999999999996</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5.7177499999999997</v>
+      </c>
+      <c r="J3" s="12">
+        <v>5.23414</v>
+      </c>
+      <c r="K3" s="13">
+        <v>3.9325000000000001</v>
+      </c>
+      <c r="L3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
